--- a/offshore/offshore.xlsx
+++ b/offshore/offshore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oberdieck/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oberdieck/Projects/current/amlc-2022/offshore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F41BFC1-A22E-8E40-8000-255FDF4B01B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC394CD-B36F-CA46-A1CD-991421E73087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{400184FD-050C-5540-A4BF-949E66893F74}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15680" xr2:uid="{400184FD-050C-5540-A4BF-949E66893F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Easting</t>
   </si>
@@ -199,180 +199,6 @@
   </si>
   <si>
     <t>F09</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>F23</t>
-  </si>
-  <si>
-    <t>F24</t>
-  </si>
-  <si>
-    <t>F25</t>
-  </si>
-  <si>
-    <t>F26</t>
-  </si>
-  <si>
-    <t>F27</t>
-  </si>
-  <si>
-    <t>F28</t>
-  </si>
-  <si>
-    <t>F29</t>
-  </si>
-  <si>
-    <t>G01</t>
-  </si>
-  <si>
-    <t>H01</t>
-  </si>
-  <si>
-    <t>I01</t>
-  </si>
-  <si>
-    <t>I02</t>
-  </si>
-  <si>
-    <t>I03</t>
-  </si>
-  <si>
-    <t>I04</t>
-  </si>
-  <si>
-    <t>I05</t>
-  </si>
-  <si>
-    <t>I07</t>
-  </si>
-  <si>
-    <t>I08</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>I28</t>
-  </si>
-  <si>
-    <t>J01</t>
-  </si>
-  <si>
-    <t>K01</t>
-  </si>
-  <si>
-    <t>L01</t>
-  </si>
-  <si>
-    <t>L02</t>
-  </si>
-  <si>
-    <t>L03</t>
-  </si>
-  <si>
-    <t>L04</t>
-  </si>
-  <si>
-    <t>L05</t>
-  </si>
-  <si>
-    <t>L06</t>
-  </si>
-  <si>
-    <t>M01</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>P06</t>
-  </si>
-  <si>
-    <t>P07</t>
-  </si>
-  <si>
-    <t>P08</t>
-  </si>
-  <si>
-    <t>P09</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>P19</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>P22</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>P24</t>
-  </si>
-  <si>
-    <t>P25</t>
-  </si>
-  <si>
-    <t>P26</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>P28</t>
   </si>
   <si>
     <t>IsTurbine</t>
@@ -390,7 +216,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -442,16 +268,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -500,6 +323,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D9D9"/>
@@ -524,32 +348,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D9D9"/>
@@ -589,6 +388,30 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -603,12 +426,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3F49817-86EE-6A4E-9513-D3A5503EA818}" name="Table1" displayName="Table1" ref="A1:D113" totalsRowShown="0" dataDxfId="1" tableBorderDxfId="5">
-  <autoFilter ref="A1:D113" xr:uid="{F23F713C-64DF-E948-B49E-3F7A9B4223FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3F49817-86EE-6A4E-9513-D3A5503EA818}" name="Table1" displayName="Table1" ref="A1:D55" totalsRowShown="0" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D55" xr:uid="{F23F713C-64DF-E948-B49E-3F7A9B4223FC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D36098D9-D2E6-BB40-9C86-A857D83950B6}" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BFF46B03-1BEB-FD42-8A26-29458EA57CDE}" name="Easting" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C9F12937-8A2E-FA45-8993-BFE28D74F4F7}" name="Northing" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D36098D9-D2E6-BB40-9C86-A857D83950B6}" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BFF46B03-1BEB-FD42-8A26-29458EA57CDE}" name="Easting" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C9F12937-8A2E-FA45-8993-BFE28D74F4F7}" name="Northing" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{5BD51A29-F843-EE47-AB4F-D60155D0E610}" name="IsTurbine" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -912,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1A2680-A2E5-7B47-9A17-CD79AD8837E6}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,7 +749,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -935,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -948,7 +771,7 @@
       <c r="C2" s="2">
         <v>6264751</v>
       </c>
-      <c r="D2" s="6" t="b">
+      <c r="D2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -962,7 +785,7 @@
       <c r="C3" s="4">
         <v>6265371.2083790004</v>
       </c>
-      <c r="D3" s="6" t="b">
+      <c r="D3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -976,7 +799,7 @@
       <c r="C4" s="2">
         <v>6265991.8322550002</v>
       </c>
-      <c r="D4" s="6" t="b">
+      <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -990,7 +813,7 @@
       <c r="C5" s="4">
         <v>6266612.7541319998</v>
       </c>
-      <c r="D5" s="6" t="b">
+      <c r="D5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1004,7 +827,7 @@
       <c r="C6" s="2">
         <v>6267233.8564600004</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1018,7 +841,7 @@
       <c r="C7" s="4">
         <v>6267855.0216539996</v>
       </c>
-      <c r="D7" s="6" t="b">
+      <c r="D7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1032,7 +855,7 @@
       <c r="C8" s="2">
         <v>6268476.1321160002</v>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1046,7 +869,7 @@
       <c r="C9" s="4">
         <v>6269097.0702600004</v>
       </c>
-      <c r="D9" s="6" t="b">
+      <c r="D9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1060,7 +883,7 @@
       <c r="C10" s="2">
         <v>6269717.7185310004</v>
       </c>
-      <c r="D10" s="6" t="b">
+      <c r="D10" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1074,7 +897,7 @@
       <c r="C11" s="4">
         <v>6270337.9594299998</v>
       </c>
-      <c r="D11" s="6" t="b">
+      <c r="D11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1088,7 +911,7 @@
       <c r="C12" s="2">
         <v>6271072.1822189996</v>
       </c>
-      <c r="D12" s="6" t="b">
+      <c r="D12" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1102,7 +925,7 @@
       <c r="C13" s="4">
         <v>6271805.8441989999</v>
       </c>
-      <c r="D13" s="6" t="b">
+      <c r="D13" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1116,7 +939,7 @@
       <c r="C14" s="2">
         <v>6272537.9598869998</v>
       </c>
-      <c r="D14" s="6" t="b">
+      <c r="D14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1130,7 +953,7 @@
       <c r="C15" s="4">
         <v>6273194.9538359996</v>
       </c>
-      <c r="D15" s="6" t="b">
+      <c r="D15" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1144,7 +967,7 @@
       <c r="C16" s="2">
         <v>6273850.7279719999</v>
       </c>
-      <c r="D16" s="6" t="b">
+      <c r="D16" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1158,7 +981,7 @@
       <c r="C17" s="4">
         <v>6274505.1387609998</v>
       </c>
-      <c r="D17" s="6" t="b">
+      <c r="D17" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1172,7 +995,7 @@
       <c r="C18" s="2">
         <v>6275158.0429699998</v>
       </c>
-      <c r="D18" s="6" t="b">
+      <c r="D18" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1186,7 +1009,7 @@
       <c r="C19" s="4">
         <v>6275809.2976949997</v>
       </c>
-      <c r="D19" s="6" t="b">
+      <c r="D19" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1200,7 +1023,7 @@
       <c r="C20" s="2">
         <v>6276458.760392</v>
       </c>
-      <c r="D20" s="6" t="b">
+      <c r="D20" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1214,7 +1037,7 @@
       <c r="C21" s="4">
         <v>6277106.2889130004</v>
       </c>
-      <c r="D21" s="6" t="b">
+      <c r="D21" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1228,7 +1051,7 @@
       <c r="C22" s="2">
         <v>6278267</v>
       </c>
-      <c r="D22" s="6" t="b">
+      <c r="D22" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1242,7 +1065,7 @@
       <c r="C23" s="4">
         <v>6278846</v>
       </c>
-      <c r="D23" s="6" t="b">
+      <c r="D23" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1256,7 +1079,7 @@
       <c r="C24" s="2">
         <v>6279423</v>
       </c>
-      <c r="D24" s="6" t="b">
+      <c r="D24" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1270,7 +1093,7 @@
       <c r="C25" s="4">
         <v>6279997</v>
       </c>
-      <c r="D25" s="6" t="b">
+      <c r="D25" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1284,7 +1107,7 @@
       <c r="C26" s="2">
         <v>6280570</v>
       </c>
-      <c r="D26" s="6" t="b">
+      <c r="D26" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1121,7 @@
       <c r="C27" s="4">
         <v>6281140</v>
       </c>
-      <c r="D27" s="6" t="b">
+      <c r="D27" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1312,7 +1135,7 @@
       <c r="C28" s="2">
         <v>6281709</v>
       </c>
-      <c r="D28" s="6" t="b">
+      <c r="D28" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +1149,7 @@
       <c r="C29" s="4">
         <v>6282274</v>
       </c>
-      <c r="D29" s="6" t="b">
+      <c r="D29" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1340,7 +1163,7 @@
       <c r="C30" s="2">
         <v>6282837</v>
       </c>
-      <c r="D30" s="6" t="b">
+      <c r="D30" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1354,7 +1177,7 @@
       <c r="C31" s="4">
         <v>6283397</v>
       </c>
-      <c r="D31" s="6" t="b">
+      <c r="D31" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1368,7 +1191,7 @@
       <c r="C32" s="2">
         <v>6265833</v>
       </c>
-      <c r="D32" s="6" t="b">
+      <c r="D32" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1205,7 @@
       <c r="C33" s="4">
         <v>6266364.1976699997</v>
       </c>
-      <c r="D33" s="6" t="b">
+      <c r="D33" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1396,7 +1219,7 @@
       <c r="C34" s="2">
         <v>6267250.396524</v>
       </c>
-      <c r="D34" s="6" t="b">
+      <c r="D34" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1410,7 +1233,7 @@
       <c r="C35" s="4">
         <v>6268126.3221490001</v>
       </c>
-      <c r="D35" s="6" t="b">
+      <c r="D35" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1424,7 +1247,7 @@
       <c r="C36" s="2">
         <v>6269001.1889899997</v>
       </c>
-      <c r="D36" s="6" t="b">
+      <c r="D36" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1438,7 +1261,7 @@
       <c r="C37" s="4">
         <v>6269874.3916880004</v>
       </c>
-      <c r="D37" s="6" t="b">
+      <c r="D37" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1452,7 +1275,7 @@
       <c r="C38" s="2">
         <v>6270745.3433729997</v>
       </c>
-      <c r="D38" s="6" t="b">
+      <c r="D38" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1466,7 +1289,7 @@
       <c r="C39" s="4">
         <v>6271613.4703230001</v>
       </c>
-      <c r="D39" s="6" t="b">
+      <c r="D39" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1480,7 +1303,7 @@
       <c r="C40" s="2">
         <v>6273558.9819390001</v>
       </c>
-      <c r="D40" s="6" t="b">
+      <c r="D40" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1494,7 +1317,7 @@
       <c r="C41" s="4">
         <v>6274436.1065579997</v>
       </c>
-      <c r="D41" s="6" t="b">
+      <c r="D41" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1508,7 +1331,7 @@
       <c r="C42" s="2">
         <v>6276172.975017</v>
       </c>
-      <c r="D42" s="6" t="b">
+      <c r="D42" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1345,7 @@
       <c r="C43" s="4">
         <v>6283444.1940350002</v>
       </c>
-      <c r="D43" s="6" t="b">
+      <c r="D43" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1536,7 +1359,7 @@
       <c r="C44" s="2">
         <v>6266915</v>
       </c>
-      <c r="D44" s="6" t="b">
+      <c r="D44" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1550,7 +1373,7 @@
       <c r="C45" s="4">
         <v>6267456</v>
       </c>
-      <c r="D45" s="6" t="b">
+      <c r="D45" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1564,7 +1387,7 @@
       <c r="C46" s="2">
         <v>6267997</v>
       </c>
-      <c r="D46" s="6" t="b">
+      <c r="D46" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1578,7 +1401,7 @@
       <c r="C47" s="4">
         <v>6268926.6664920002</v>
       </c>
-      <c r="D47" s="6" t="b">
+      <c r="D47" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1592,7 +1415,7 @@
       <c r="C48" s="2">
         <v>6269853.4787349999</v>
       </c>
-      <c r="D48" s="6" t="b">
+      <c r="D48" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1606,7 +1429,7 @@
       <c r="C49" s="4">
         <v>6270777.2429099996</v>
       </c>
-      <c r="D49" s="6" t="b">
+      <c r="D49" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1620,7 +1443,7 @@
       <c r="C50" s="2">
         <v>6271697.7587390002</v>
       </c>
-      <c r="D50" s="6" t="b">
+      <c r="D50" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1634,7 +1457,7 @@
       <c r="C51" s="4">
         <v>6272614.8413580004</v>
       </c>
-      <c r="D51" s="6" t="b">
+      <c r="D51" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1648,7 +1471,7 @@
       <c r="C52" s="2">
         <v>6273483.1060509998</v>
       </c>
-      <c r="D52" s="6" t="b">
+      <c r="D52" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1662,7 +1485,7 @@
       <c r="C53" s="4">
         <v>6274351.3707440002</v>
       </c>
-      <c r="D53" s="6" t="b">
+      <c r="D53" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1676,833 +1499,21 @@
       <c r="C54" s="2">
         <v>6275169.8628390003</v>
       </c>
-      <c r="D54" s="6" t="b">
+      <c r="D54" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="4">
-        <v>635875.20340400003</v>
-      </c>
-      <c r="C55" s="4">
-        <v>6275986.9609650001</v>
-      </c>
-      <c r="D55" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="2">
-        <v>635589</v>
-      </c>
-      <c r="C56" s="2">
-        <v>6276850</v>
-      </c>
-      <c r="D56" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="4">
-        <v>635330.65313899994</v>
-      </c>
-      <c r="C57" s="4">
-        <v>6277616.8839800004</v>
-      </c>
-      <c r="D57" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="2">
-        <v>635051.92219800001</v>
-      </c>
-      <c r="C58" s="2">
-        <v>6278429.6633029999</v>
-      </c>
-      <c r="D58" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="4">
-        <v>634768.89773199998</v>
-      </c>
-      <c r="C59" s="4">
-        <v>6279240.9575279998</v>
-      </c>
-      <c r="D59" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="2">
-        <v>634309</v>
-      </c>
-      <c r="C60" s="2">
-        <v>6280530</v>
-      </c>
-      <c r="D60" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="4">
-        <v>634072</v>
-      </c>
-      <c r="C61" s="4">
-        <v>6281189</v>
-      </c>
-      <c r="D61" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2">
-        <v>633166</v>
-      </c>
-      <c r="C62" s="2">
-        <v>6283679</v>
-      </c>
-      <c r="D62" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="4">
-        <v>632816</v>
-      </c>
-      <c r="C63" s="4">
-        <v>6284616</v>
-      </c>
-      <c r="D63" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="2">
-        <v>632598.30336300004</v>
-      </c>
-      <c r="C64" s="2">
-        <v>6285195.1453059996</v>
-      </c>
-      <c r="D64" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="4">
-        <v>632383.68948199996</v>
-      </c>
-      <c r="C65" s="4">
-        <v>6285755.4495820003</v>
-      </c>
-      <c r="D65" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="2">
-        <v>632169</v>
-      </c>
-      <c r="C66" s="2">
-        <v>6286316</v>
-      </c>
-      <c r="D66" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="4">
-        <v>638560</v>
-      </c>
-      <c r="C67" s="4">
-        <v>6268538</v>
-      </c>
-      <c r="D67" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="2">
-        <v>639155</v>
-      </c>
-      <c r="C68" s="2">
-        <v>6269079</v>
-      </c>
-      <c r="D68" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="4">
-        <v>639751</v>
-      </c>
-      <c r="C69" s="4">
-        <v>6269619</v>
-      </c>
-      <c r="D69" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="2">
-        <v>639421</v>
-      </c>
-      <c r="C70" s="2">
-        <v>6270433</v>
-      </c>
-      <c r="D70" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="4">
-        <v>639089</v>
-      </c>
-      <c r="C71" s="4">
-        <v>6271245</v>
-      </c>
-      <c r="D71" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="2">
-        <v>638755</v>
-      </c>
-      <c r="C72" s="2">
-        <v>6272056</v>
-      </c>
-      <c r="D72" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="4">
-        <v>638418</v>
-      </c>
-      <c r="C73" s="4">
-        <v>6272866</v>
-      </c>
-      <c r="D73" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="2">
-        <v>637736</v>
-      </c>
-      <c r="C74" s="2">
-        <v>6274483</v>
-      </c>
-      <c r="D74" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="4">
-        <v>637391</v>
-      </c>
-      <c r="C75" s="4">
-        <v>6275290</v>
-      </c>
-      <c r="D75" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="2">
-        <v>636695</v>
-      </c>
-      <c r="C76" s="2">
-        <v>6276901</v>
-      </c>
-      <c r="D76" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="4">
-        <v>632985</v>
-      </c>
-      <c r="C77" s="4">
-        <v>6286311</v>
-      </c>
-      <c r="D77" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="2">
-        <v>640346</v>
-      </c>
-      <c r="C78" s="2">
-        <v>6270160</v>
-      </c>
-      <c r="D78" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="4">
-        <v>640942</v>
-      </c>
-      <c r="C79" s="4">
-        <v>6270701</v>
-      </c>
-      <c r="D79" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="2">
-        <v>641537</v>
-      </c>
-      <c r="C80" s="2">
-        <v>6271242</v>
-      </c>
-      <c r="D80" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="4">
-        <v>640697.84831799997</v>
-      </c>
-      <c r="C81" s="4">
-        <v>6271604.6471189996</v>
-      </c>
-      <c r="D81" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="2">
-        <v>640182.77135399997</v>
-      </c>
-      <c r="C82" s="2">
-        <v>6272259.595621</v>
-      </c>
-      <c r="D82" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="5">
-        <v>639695.14569999999</v>
-      </c>
-      <c r="C83" s="5">
-        <v>6272935.2309999997</v>
-      </c>
-      <c r="D83" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="6">
-        <v>639235.80119999999</v>
-      </c>
-      <c r="C84" s="6">
-        <v>6273630.4029999999</v>
-      </c>
-      <c r="D84" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="5">
-        <v>638805.51950000005</v>
-      </c>
-      <c r="C85" s="5">
-        <v>6274343.9289999995</v>
-      </c>
-      <c r="D85" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="6">
-        <v>642114.7402</v>
-      </c>
-      <c r="C86" s="6">
-        <v>6271767.1529999999</v>
-      </c>
-      <c r="D86" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="5">
-        <v>642717.96920000005</v>
-      </c>
-      <c r="C87" s="5">
-        <v>6272315.1900000004</v>
-      </c>
-      <c r="D87" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="6">
-        <v>642154.49609999999</v>
-      </c>
-      <c r="C88" s="6">
-        <v>6272717.3859999999</v>
-      </c>
-      <c r="D88" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="5">
-        <v>641593.71329999994</v>
-      </c>
-      <c r="C89" s="5">
-        <v>6273136.2489999998</v>
-      </c>
-      <c r="D89" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="6">
-        <v>641052.71360000002</v>
-      </c>
-      <c r="C90" s="6">
-        <v>6273574.0920000002</v>
-      </c>
-      <c r="D90" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="5">
-        <v>640527.02399999998</v>
-      </c>
-      <c r="C91" s="5">
-        <v>6274034.4460000005</v>
-      </c>
-      <c r="D91" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="2">
-        <v>640021.466136</v>
-      </c>
-      <c r="C92" s="2">
-        <v>6274513.1062120004</v>
-      </c>
-      <c r="D92" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="4">
-        <v>639533.03902999999</v>
-      </c>
-      <c r="C93" s="4">
-        <v>6275012.8584909998</v>
-      </c>
-      <c r="D93" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="2">
-        <v>639029.40211300005</v>
-      </c>
-      <c r="C94" s="2">
-        <v>6275571.7792809997</v>
-      </c>
-      <c r="D94" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="4">
-        <v>638562.97110800003</v>
-      </c>
-      <c r="C95" s="4">
-        <v>6276134.3855379997</v>
-      </c>
-      <c r="D95" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="2">
-        <v>638204.83502100001</v>
-      </c>
-      <c r="C96" s="2">
-        <v>6276600.2248449996</v>
-      </c>
-      <c r="D96" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="4">
-        <v>637861.03683200001</v>
-      </c>
-      <c r="C97" s="4">
-        <v>6277079.0662829997</v>
-      </c>
-      <c r="D97" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="2">
-        <v>637533.69186400005</v>
-      </c>
-      <c r="C98" s="2">
-        <v>6277568.0783989998</v>
-      </c>
-      <c r="D98" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="4">
-        <v>637253.91218900005</v>
-      </c>
-      <c r="C99" s="4">
-        <v>6278095.002293</v>
-      </c>
-      <c r="D99" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="2">
-        <v>636711</v>
-      </c>
-      <c r="C100" s="2">
-        <v>6279161</v>
-      </c>
-      <c r="D100" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="4">
-        <v>636451</v>
-      </c>
-      <c r="C101" s="4">
-        <v>6279695</v>
-      </c>
-      <c r="D101" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="2">
-        <v>636196</v>
-      </c>
-      <c r="C102" s="2">
-        <v>6280232</v>
-      </c>
-      <c r="D102" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="4">
-        <v>635705</v>
-      </c>
-      <c r="C103" s="4">
-        <v>6281314</v>
-      </c>
-      <c r="D103" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="2">
-        <v>635469</v>
-      </c>
-      <c r="C104" s="2">
-        <v>6281859</v>
-      </c>
-      <c r="D104" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="4">
-        <v>635239</v>
-      </c>
-      <c r="C105" s="4">
-        <v>6282406</v>
-      </c>
-      <c r="D105" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="2">
-        <v>635015</v>
-      </c>
-      <c r="C106" s="2">
-        <v>6282956</v>
-      </c>
-      <c r="D106" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="4">
-        <v>634797</v>
-      </c>
-      <c r="C107" s="4">
-        <v>6283509</v>
-      </c>
-      <c r="D107" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="2">
-        <v>634585</v>
-      </c>
-      <c r="C108" s="2">
-        <v>6284064</v>
-      </c>
-      <c r="D108" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="4">
-        <v>634380</v>
-      </c>
-      <c r="C109" s="4">
-        <v>6284621</v>
-      </c>
-      <c r="D109" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="2">
-        <v>634181</v>
-      </c>
-      <c r="C110" s="2">
-        <v>6285181</v>
-      </c>
-      <c r="D110" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="4">
-        <v>633988</v>
-      </c>
-      <c r="C111" s="4">
-        <v>6285743</v>
-      </c>
-      <c r="D111" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="8">
-        <v>633802</v>
-      </c>
-      <c r="C112" s="8">
-        <v>6286307</v>
-      </c>
-      <c r="D112" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="9">
+      <c r="B55" s="6">
         <v>631202.22936137067</v>
       </c>
-      <c r="C113">
+      <c r="C55">
         <v>6273092.9857866047</v>
       </c>
-      <c r="D113" s="6" t="b">
+      <c r="D55" s="5" t="b">
         <v>0</v>
       </c>
     </row>
